--- a/biology/Médecine/Nerf_fibulaire_superficiel/Nerf_fibulaire_superficiel.xlsx
+++ b/biology/Médecine/Nerf_fibulaire_superficiel/Nerf_fibulaire_superficiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf fibulaire superficiel (nervum peroneus superficialis) ou  nerf péronier superficiel  ou nerf musculo-cutané de la jambe est un nerf de la jambe. Il est l'une des deux branches terminales du nerf fibulaire (ou nerf péronier commun).
 </t>
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il naît au niveau de la tête de la fibula (péroné), au-dessous du muscle long fibulaire par division du nerf péronier ou nerf fibulaire commun (nerf sciatique poplité externe) en ses deux branches terminales:
 le nerf fibulaire profond (ou péronier profond) qui continue la direction de son prédécesseur
@@ -547,7 +561,9 @@
           <t>Innervation et branches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il abandonne des rameaux moteurs au contact des muscle long fibulaire et muscle court fibulaire, puis il libère des rameaux sensitifs dans le territoire latéral de la jambe et du dos du pied. Branche terminale latéral du Nerf Fibulaire commun, qui lui même est une branche Terminale du Nerf Sciatique, qui est une branche terminale du plexus Sacré.
 </t>
